--- a/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/BARTHEL_R2-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05678591438414143</v>
+        <v>0.0632807288729547</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04568846750555194</v>
+        <v>0.0493711230396045</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09718815774029398</v>
+        <v>0.09511009122952134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09036580235181463</v>
+        <v>0.09026111580641183</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06469537612769038</v>
+        <v>0.06221145853951741</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1854498570952555</v>
+        <v>0.1875253032536149</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1727890188048415</v>
+        <v>0.1681982876003433</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2108059439067744</v>
+        <v>0.2126900429074424</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07270445117785698</v>
+        <v>0.07513803953390299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1342280956879153</v>
+        <v>0.1359975735377224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1495930727213401</v>
+        <v>0.1516882325386992</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1679831724833969</v>
+        <v>0.1664513605848457</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1714244968995694</v>
+        <v>0.1713321476266734</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1495311534661429</v>
+        <v>0.1453712996309324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2051737536805863</v>
+        <v>0.2124355475221253</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1755969179578853</v>
+        <v>0.1733107150488216</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1671671403127165</v>
+        <v>0.1732181314225813</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3220584079477624</v>
+        <v>0.3155707397609149</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3061565182068438</v>
+        <v>0.3000083035077108</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2965387167971181</v>
+        <v>0.2975607195710329</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1447254887199237</v>
+        <v>0.1534082425965875</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2225171649392763</v>
+        <v>0.2298356487857941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.242943508695988</v>
+        <v>0.2444447547622947</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2286555455897782</v>
+        <v>0.2264370334432795</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04512677293442556</v>
+        <v>0.04074908446319182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1499995183905238</v>
+        <v>0.1427300926295421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08591729747127849</v>
+        <v>0.08382905035030994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.110842370908188</v>
+        <v>0.111655820933183</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1029510495015738</v>
+        <v>0.09641152662898696</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2618559771606326</v>
+        <v>0.2589947553342863</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1340646556415049</v>
+        <v>0.1320695874557125</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1984646914644897</v>
+        <v>0.1979186154447049</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08615043177638586</v>
+        <v>0.08628485234508403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2282451635276952</v>
+        <v>0.2273079996948999</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1238206487394367</v>
+        <v>0.1235096193649032</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1716632685517054</v>
+        <v>0.1699508694469218</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1337722217178358</v>
+        <v>0.1234950965266298</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2821329420312384</v>
+        <v>0.2889522033089465</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1872899967705684</v>
+        <v>0.1781007303489722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2000958728824508</v>
+        <v>0.1996438243910254</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.225728898986921</v>
+        <v>0.2139450780153747</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4007468273127298</v>
+        <v>0.3936671272955238</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2497416975320736</v>
+        <v>0.2469597410120713</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2750817006301109</v>
+        <v>0.2757006591724765</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1625240430803721</v>
+        <v>0.1615860220473216</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3235441038671292</v>
+        <v>0.3220695952629855</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2058248810645402</v>
+        <v>0.1987352234692807</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2340991917685668</v>
+        <v>0.22937047434998</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008804736925904375</v>
+        <v>0.008825308556005778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07422817104650774</v>
+        <v>0.07535369362559055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05751119592072982</v>
+        <v>0.06183451213099147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07008957827849717</v>
+        <v>0.06939627281391526</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06735535837878776</v>
+        <v>0.06700659004468708</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2078536977019124</v>
+        <v>0.2052736118988063</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1819407593754024</v>
+        <v>0.1780028659041367</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1628857045779208</v>
+        <v>0.1658745931070187</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04886073933068581</v>
+        <v>0.05089416926542828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1707282253942797</v>
+        <v>0.1754614112619025</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1422307669792326</v>
+        <v>0.144282574736931</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1297037715386979</v>
+        <v>0.1310876774740741</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08249322489564227</v>
+        <v>0.0836754267635713</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2526044330424062</v>
+        <v>0.2447437110848218</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1704958250378219</v>
+        <v>0.1816418909853394</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1556207690881532</v>
+        <v>0.1617869142926363</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1789434800139866</v>
+        <v>0.1860380462687449</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3745125607978737</v>
+        <v>0.3605662203647664</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3430444683628105</v>
+        <v>0.3365017414894744</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2571991363062726</v>
+        <v>0.2648045366982579</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1239627600977584</v>
+        <v>0.1223301732710417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2887669458221876</v>
+        <v>0.2859692622554875</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2470784073801301</v>
+        <v>0.2496606902203068</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1971054732532446</v>
+        <v>0.19743629259163</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05153393322264357</v>
+        <v>0.0485673519623234</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09290699176117323</v>
+        <v>0.09167213817037127</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05628555713577137</v>
+        <v>0.06074217147630889</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08499291252206508</v>
+        <v>0.08609981705925529</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.107612989967315</v>
+        <v>0.105522121406747</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1539338584473558</v>
+        <v>0.1535357584944764</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1521781279342979</v>
+        <v>0.1526205478336773</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1878953542981261</v>
+        <v>0.189657230586415</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09518840183714516</v>
+        <v>0.09447876046819845</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1373987340672333</v>
+        <v>0.1419375251310344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1278946527801708</v>
+        <v>0.1250392742058193</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1533284402703743</v>
+        <v>0.1521860137432305</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1435802192508022</v>
+        <v>0.1406739993707511</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.211057573669481</v>
+        <v>0.2181927322220509</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1467639851876905</v>
+        <v>0.1482926173952621</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1569863363864909</v>
+        <v>0.1548278054654839</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.210342059909285</v>
+        <v>0.2062779379456989</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2587991666165888</v>
+        <v>0.2548851644655833</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2828902138528367</v>
+        <v>0.2703009122651696</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2630078876244323</v>
+        <v>0.2597768180703268</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1682651067291829</v>
+        <v>0.1668234314827357</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2185370432870681</v>
+        <v>0.2200898964181624</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.205420113775464</v>
+        <v>0.2027314138993704</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2045561842998265</v>
+        <v>0.2058141713170444</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05945337702034552</v>
+        <v>0.06201777712561553</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.107518593019347</v>
+        <v>0.1090724252550989</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2270864013637616</v>
+        <v>0.224475628821827</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1844212478486017</v>
+        <v>0.1876409181414094</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2105090839735098</v>
+        <v>0.2101863468184201</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09493386779726039</v>
+        <v>0.0936404206635955</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1915354371161057</v>
+        <v>0.1897191808320553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.153781921885389</v>
+        <v>0.1545002727097729</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1696941726477344</v>
+        <v>0.1700733049316157</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.104787350763361</v>
+        <v>0.1073428281719093</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1498971791544236</v>
+        <v>0.1516048100562587</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2922577494977263</v>
+        <v>0.2898526126371199</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2493932630837101</v>
+        <v>0.2514244434300952</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2514352744746131</v>
+        <v>0.2533576031726413</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1318035758450402</v>
+        <v>0.1298715026348456</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.238964065513868</v>
+        <v>0.2356114363057071</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1955905141284803</v>
+        <v>0.1972995935479556</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1994889020732241</v>
+        <v>0.1997102230548681</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6530</v>
+        <v>7277</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6376</v>
+        <v>6890</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>13289</v>
+        <v>13005</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14622</v>
+        <v>14605</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9674</v>
+        <v>9303</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30931</v>
+        <v>31277</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>29960</v>
+        <v>29164</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>39956</v>
+        <v>40313</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19232</v>
+        <v>19876</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>41119</v>
+        <v>41661</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>46393</v>
+        <v>47042</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>59021</v>
+        <v>58483</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19712</v>
+        <v>19701</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20867</v>
+        <v>20286</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28054</v>
+        <v>29047</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>28413</v>
+        <v>28043</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>24997</v>
+        <v>25902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>53715</v>
+        <v>52633</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>53085</v>
+        <v>52019</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>56206</v>
+        <v>56400</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>38283</v>
+        <v>40580</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>68165</v>
+        <v>70406</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>75343</v>
+        <v>75808</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>80338</v>
+        <v>79559</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6583</v>
+        <v>5945</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23232</v>
+        <v>22106</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14171</v>
+        <v>13827</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>19753</v>
+        <v>19898</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18807</v>
+        <v>17612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>50124</v>
+        <v>49577</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>29382</v>
+        <v>28945</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>47700</v>
+        <v>47569</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>28306</v>
+        <v>28350</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>79041</v>
+        <v>78716</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>47560</v>
+        <v>47441</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>71850</v>
+        <v>71133</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19516</v>
+        <v>18017</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>43696</v>
+        <v>44752</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30892</v>
+        <v>29376</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35658</v>
+        <v>35577</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>41236</v>
+        <v>39083</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>76711</v>
+        <v>75356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>54734</v>
+        <v>54124</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66115</v>
+        <v>66264</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>53400</v>
+        <v>53092</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>112043</v>
+        <v>111532</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>79058</v>
+        <v>76335</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>97982</v>
+        <v>96003</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7690</v>
+        <v>7806</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6616</v>
+        <v>7113</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>11199</v>
+        <v>11088</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>9150</v>
+        <v>9103</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29311</v>
+        <v>28947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>25944</v>
+        <v>25382</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>28391</v>
+        <v>28912</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>11737</v>
+        <v>12226</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>41763</v>
+        <v>42921</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>36643</v>
+        <v>37172</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>43332</v>
+        <v>43794</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8610</v>
+        <v>8733</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26169</v>
+        <v>25355</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19613</v>
+        <v>20895</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24866</v>
+        <v>25851</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24309</v>
+        <v>25273</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>52813</v>
+        <v>50847</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>48917</v>
+        <v>47984</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>44830</v>
+        <v>46156</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29778</v>
+        <v>29386</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>70637</v>
+        <v>69953</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>63655</v>
+        <v>64320</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>65850</v>
+        <v>65961</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7071</v>
+        <v>6664</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15015</v>
+        <v>14815</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9828</v>
+        <v>10607</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18226</v>
+        <v>18463</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>22467</v>
+        <v>22031</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>37521</v>
+        <v>37424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>36946</v>
+        <v>37053</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>55043</v>
+        <v>55560</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>32935</v>
+        <v>32689</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>55696</v>
+        <v>57536</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>53383</v>
+        <v>52191</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>77796</v>
+        <v>77217</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19702</v>
+        <v>19303</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34110</v>
+        <v>35263</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25628</v>
+        <v>25895</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33664</v>
+        <v>33201</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>43915</v>
+        <v>43066</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>63082</v>
+        <v>62128</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68680</v>
+        <v>65624</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>77047</v>
+        <v>76101</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>58219</v>
+        <v>57720</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>88587</v>
+        <v>89216</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>85742</v>
+        <v>84620</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>103788</v>
+        <v>104427</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>29873</v>
+        <v>31162</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>76793</v>
+        <v>77903</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>168720</v>
+        <v>166780</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>143467</v>
+        <v>145972</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>188855</v>
+        <v>188566</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>111956</v>
+        <v>110431</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>249496</v>
+        <v>247130</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>210567</v>
+        <v>211551</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>273440</v>
+        <v>274051</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>52652</v>
+        <v>53936</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>107061</v>
+        <v>108281</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>217140</v>
+        <v>215353</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>194011</v>
+        <v>195591</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>225571</v>
+        <v>227296</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>155437</v>
+        <v>153159</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>311277</v>
+        <v>306910</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>267814</v>
+        <v>270154</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>321450</v>
+        <v>321807</v>
       </c>
     </row>
     <row r="24">
